--- a/raporty/Raport ofert firmy BZ-Bud_2025-09-03.xlsx
+++ b/raporty/Raport ofert firmy BZ-Bud_2025-09-03.xlsx
@@ -564,14 +564,14 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>899999</v>
+        <v>900000</v>
       </c>
       <c r="M2" t="n">
-        <v>10080.63</v>
+        <v>10080.65</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
